--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>23.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.10</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>23.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.10</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.55</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.72</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.6893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.55</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2535,851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3262,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,17 +3274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3293,14 +3314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.06</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3309,14 +3352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.72</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3325,14 +3390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.55</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3341,14 +3428,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3357,14 +3466,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3373,13 +3504,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8985</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5855</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>21.06</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>25.72</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>11.55</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2345,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3313,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3818,138 +5183,6 @@
       </c>
       <c r="H13" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>22.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4014,36 +5247,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>005974</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>东方红配置精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4052,36 +5285,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>005975</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>东方红配置精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4090,6 +5323,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
+++ b/数据整理/stocks/港股/00902-华能国际电力股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>21.06</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>25.72</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>11.55</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -616,7 +633,1561 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2780,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3710,7 +5281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4678,7 +6249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5183,138 +6754,6 @@
       </c>
       <c r="H13" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>22.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5379,36 +6818,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>005974</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>东方红配置精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5417,36 +6856,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>005975</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>东方红配置精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5462,126 +6901,126 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005974</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红配置精选混合A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1432</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005975</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红配置精选混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>